--- a/LO6/DF/data.xlsx
+++ b/LO6/DF/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erwinplanck/Desktop/Physics/Physics Lab III/LO6/DF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A322373-48BF-4149-8CF5-9587092A9D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397B78C6-4966-BA46-9467-E1BDF605E44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{698BF56D-CA27-E741-A78B-A382F864983E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>PART 1</t>
   </si>
@@ -133,6 +134,9 @@
     <t>m</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>r</t>
   </si>
   <si>
@@ -140,16 +144,29 @@
   </si>
   <si>
     <t xml:space="preserve">dr </t>
+  </si>
+  <si>
+    <t>linear estimation</t>
+  </si>
+  <si>
+    <t>dx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,9 +192,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +513,7 @@
   <dimension ref="B2:O22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="C6" sqref="C6:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,6 +540,9 @@
       <c r="K2" t="s">
         <v>6</v>
       </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -546,7 +567,7 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="N4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4">
         <f>1 * 0.00000465</f>
@@ -973,10 +994,168 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE38762-F4EE-DE41-93D2-E1D408575418}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>419.8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>-2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>346.8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>-3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>272.89999999999998</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>-4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>193.9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>-5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>118.9</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>-6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>569.70000000000005</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>644.70000000000005</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>720.7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>795.6</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>870.6</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>943.5</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B484994D-0F5D-D245-AEBB-7C146E29B317}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -987,10 +1166,10 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">

--- a/LO6/DF/data.xlsx
+++ b/LO6/DF/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erwinplanck/Desktop/Physics/Physics Lab III/LO6/DF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397B78C6-4966-BA46-9467-E1BDF605E44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC40644-F18D-684D-9BD4-3AA2B6F242D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" activeTab="1" xr2:uid="{698BF56D-CA27-E741-A78B-A382F864983E}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{698BF56D-CA27-E741-A78B-A382F864983E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>PART 1</t>
   </si>
@@ -150,12 +150,24 @@
   </si>
   <si>
     <t>dx</t>
+  </si>
+  <si>
+    <t>centre (+-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dd </t>
+  </si>
+  <si>
+    <t>CONTRAST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000E+00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -192,10 +204,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,21 +523,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6C4AA2-9BA7-E241-9204-914C0A3D7DA6}">
-  <dimension ref="B2:O22"/>
+  <dimension ref="B2:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -534,6 +549,9 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
       <c r="I2" t="s">
         <v>5</v>
       </c>
@@ -544,7 +562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -557,15 +575,22 @@
       <c r="G3">
         <v>569.70000000000005</v>
       </c>
-      <c r="I3">
+      <c r="H3">
         <f>F3+(G3-F3)/2</f>
         <v>494.75</v>
       </c>
+      <c r="I3">
+        <f>M3</f>
+        <v>495.09</v>
+      </c>
       <c r="K3">
         <v>492.8</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>495.09</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="N4" t="s">
         <v>27</v>
       </c>
@@ -573,8 +598,15 @@
         <f>1 * 0.00000465</f>
         <v>4.6500000000000004E-6</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4">
+        <f>SQRT(1 + 0.39^2)</f>
+        <v>1.0733592129385203</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -584,8 +616,12 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="R5">
+        <f>O4*R4</f>
+        <v>4.9911203401641203E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1</v>
       </c>
@@ -601,7 +637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>2</v>
       </c>
@@ -625,21 +661,25 @@
       </c>
       <c r="K7">
         <f>C6-$I$3</f>
-        <v>-74.949999999999989</v>
+        <v>-75.289999999999964</v>
       </c>
       <c r="L7">
         <f>K7*0.00000465</f>
-        <v>-3.4851749999999996E-4</v>
+        <v>-3.5009849999999987E-4</v>
+      </c>
+      <c r="M7">
+        <f>L7*1000000</f>
+        <v>-350.09849999999989</v>
       </c>
       <c r="N7" cm="1">
         <f t="array" ref="N7:O11">LINEST(L7:L18,J7:J18,TRUE,TRUE)</f>
         <v>3.487857692307692E-4</v>
       </c>
       <c r="O7">
-        <v>1.5887500000000335E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+        <v>7.7500000003298316E-9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>3</v>
       </c>
@@ -663,20 +703,24 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:K12" si="3">C7-$I$3</f>
-        <v>-147.94999999999999</v>
+        <v>-148.28999999999996</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8:L18" si="4">K8*0.00000465</f>
-        <v>-6.879675E-4</v>
+        <v>-6.8954849999999985E-4</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M18" si="5">L8*1000000</f>
+        <v>-689.54849999999988</v>
       </c>
       <c r="N8">
-        <v>4.7056708164554155E-7</v>
+        <v>4.7056708164553954E-7</v>
       </c>
       <c r="O8">
-        <v>1.8325954921860857E-6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+        <v>1.8325954921860779E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>4</v>
       </c>
@@ -700,20 +744,24 @@
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
-        <v>-221.85000000000002</v>
+        <v>-222.19</v>
       </c>
       <c r="L9">
         <f t="shared" si="4"/>
-        <v>-1.0316025000000001E-3</v>
+        <v>-1.0331835E-3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>-1033.1834999999999</v>
       </c>
       <c r="N9">
         <v>0.99998179806048582</v>
       </c>
       <c r="O9">
-        <v>6.3482970043759873E-6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+        <v>6.3482970043759594E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>5</v>
       </c>
@@ -737,20 +785,24 @@
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
-        <v>-300.85000000000002</v>
+        <v>-301.18999999999994</v>
       </c>
       <c r="L10">
         <f t="shared" si="4"/>
-        <v>-1.3989525000000001E-3</v>
+        <v>-1.4005334999999998E-3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>-1400.5334999999998</v>
       </c>
       <c r="N10">
-        <v>549382.00255194318</v>
+        <v>549382.00255194795</v>
       </c>
       <c r="O10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>6</v>
       </c>
@@ -774,20 +826,24 @@
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
-        <v>-375.85</v>
+        <v>-376.18999999999994</v>
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
-        <v>-1.7477025000000002E-3</v>
+        <v>-1.7492834999999999E-3</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>-1749.2834999999998</v>
       </c>
       <c r="N11">
         <v>2.2140575332857698E-5</v>
       </c>
       <c r="O11">
-        <v>4.0300874855769133E-10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+        <v>4.0300874855768782E-10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D12">
         <v>948.5</v>
       </c>
@@ -797,40 +853,52 @@
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
-        <v>-450.75</v>
+        <v>-451.09</v>
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
-        <v>-2.0959875000000003E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+        <v>-2.0975684999999999E-3</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>-2097.5684999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13">
         <f>D6-$I$3</f>
-        <v>74.950000000000045</v>
+        <v>74.61000000000007</v>
       </c>
       <c r="L13">
         <f t="shared" si="4"/>
-        <v>3.4851750000000024E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+        <v>3.4693650000000033E-4</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>346.93650000000031</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K18" si="5">D7-$I$3</f>
-        <v>149.95000000000005</v>
+        <f t="shared" ref="K14:K18" si="6">D7-$I$3</f>
+        <v>149.61000000000007</v>
       </c>
       <c r="L14">
         <f t="shared" si="4"/>
-        <v>6.9726750000000028E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+        <v>6.9568650000000043E-4</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>695.68650000000048</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>13</v>
       </c>
@@ -841,15 +909,19 @@
         <v>3</v>
       </c>
       <c r="K15">
-        <f t="shared" si="5"/>
-        <v>225.95000000000005</v>
+        <f t="shared" si="6"/>
+        <v>225.61000000000007</v>
       </c>
       <c r="L15">
         <f t="shared" si="4"/>
-        <v>1.0506675000000003E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+        <v>1.0490865000000005E-3</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>1049.0865000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -870,12 +942,16 @@
         <v>4</v>
       </c>
       <c r="K16">
-        <f t="shared" si="5"/>
-        <v>300.85000000000002</v>
+        <f t="shared" si="6"/>
+        <v>300.51000000000005</v>
       </c>
       <c r="L16">
         <f t="shared" si="4"/>
-        <v>1.3989525000000001E-3</v>
+        <v>1.3973715000000003E-3</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>1397.3715000000002</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
@@ -892,12 +968,16 @@
         <v>5</v>
       </c>
       <c r="K17">
-        <f t="shared" si="5"/>
-        <v>375.85</v>
+        <f t="shared" si="6"/>
+        <v>375.51000000000005</v>
       </c>
       <c r="L17">
         <f t="shared" si="4"/>
-        <v>1.7477025000000002E-3</v>
+        <v>1.7461215000000004E-3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>1746.1215000000004</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
@@ -908,12 +988,16 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <f t="shared" si="5"/>
-        <v>448.75</v>
+        <f t="shared" si="6"/>
+        <v>448.41</v>
       </c>
       <c r="L18">
         <f t="shared" si="4"/>
-        <v>2.0866875E-3</v>
+        <v>2.0851065000000004E-3</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>2085.1065000000003</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
@@ -965,7 +1049,11 @@
         <v>138.59333333333333</v>
       </c>
       <c r="G21">
-        <f>F21/F16 * 0.00000465</f>
+        <f>F21/F16</f>
+        <v>55.437333333333335</v>
+      </c>
+      <c r="H21">
+        <f>G21*O4</f>
         <v>2.5778360000000002E-4</v>
       </c>
       <c r="K21" t="s">
@@ -975,18 +1063,69 @@
         <f>AVERAGE(E7:F11)*0.00000465</f>
         <v>3.4856399999999999E-4</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N21" s="3">
         <f>0.15 * L22/N7</f>
         <v>2.7180008005795933E-4</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <f>SQRT(1^2 + 1^2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="G22">
+        <f>F24/F16</f>
+        <v>1.3000309091219171</v>
+      </c>
+      <c r="H22">
+        <f>G22*O4</f>
+        <v>6.0451437274169154E-6</v>
+      </c>
       <c r="K22" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="1">
         <v>6.3200000000000005E-7</v>
       </c>
+      <c r="N22" s="3">
+        <f>N8*N21/N7</f>
+        <v>3.6670122965732179E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <f>_xlfn.T.INV.2T(0.05,2)*_xlfn.STDEV.S(C21,D21,E21)/SQRT(3)</f>
+        <v>2.9262608016378575</v>
+      </c>
+      <c r="G23">
+        <f>F22/F16</f>
+        <v>0.56568542494923801</v>
+      </c>
+      <c r="H23">
+        <f>G23*O4</f>
+        <v>2.630437226013957E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <f>(F22^2+F23^2)^0.5</f>
+        <v>3.2500772728047926</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <f>_xlfn.VAR.S(C21,E21,D21)*SQRT(3)</f>
+        <v>2.4034514356094809</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -997,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE38762-F4EE-DE41-93D2-E1D408575418}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1156,7 +1295,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1177,7 +1316,7 @@
         <v>-6</v>
       </c>
       <c r="B2">
-        <v>-2.0959875000000003E-3</v>
+        <v>-2.0967780000000001E-3</v>
       </c>
       <c r="C2">
         <v>4.6500000000000004E-6</v>
@@ -1187,8 +1326,8 @@
       <c r="A3">
         <v>-5</v>
       </c>
-      <c r="B3">
-        <v>-1.7477025000000002E-3</v>
+      <c r="B3" s="2">
+        <v>-1.7484930000000001E-3</v>
       </c>
       <c r="C3">
         <v>4.6500000000000004E-6</v>
@@ -1199,7 +1338,7 @@
         <v>-4</v>
       </c>
       <c r="B4">
-        <v>-1.3989525000000001E-3</v>
+        <v>-1.399743E-3</v>
       </c>
       <c r="C4">
         <v>4.6500000000000004E-6</v>
@@ -1210,7 +1349,7 @@
         <v>-3</v>
       </c>
       <c r="B5">
-        <v>-1.0316025000000001E-3</v>
+        <v>-1.0323929999999999E-3</v>
       </c>
       <c r="C5">
         <v>4.6500000000000004E-6</v>
@@ -1221,7 +1360,7 @@
         <v>-2</v>
       </c>
       <c r="B6">
-        <v>-6.879675E-4</v>
+        <v>-6.8875799999999982E-4</v>
       </c>
       <c r="C6">
         <v>4.6500000000000004E-6</v>
@@ -1232,7 +1371,7 @@
         <v>-1</v>
       </c>
       <c r="B7">
-        <v>-3.4851749999999996E-4</v>
+        <v>-3.4930799999999978E-4</v>
       </c>
       <c r="C7">
         <v>4.6500000000000004E-6</v>
@@ -1243,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>3.4851750000000024E-4</v>
+        <v>3.4772700000000042E-4</v>
       </c>
       <c r="C8">
         <v>4.6500000000000004E-6</v>
@@ -1254,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>6.9726750000000028E-4</v>
+        <v>6.9647700000000047E-4</v>
       </c>
       <c r="C9">
         <v>4.6500000000000004E-6</v>
@@ -1265,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>1.0506675000000003E-3</v>
+        <v>1.0498770000000005E-3</v>
       </c>
       <c r="C10">
         <v>4.6500000000000004E-6</v>
@@ -1276,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>1.3989525000000001E-3</v>
+        <v>1.3981620000000003E-3</v>
       </c>
       <c r="C11">
         <v>4.6500000000000004E-6</v>
@@ -1287,7 +1426,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>1.7477025000000002E-3</v>
+        <v>1.7469120000000004E-3</v>
       </c>
       <c r="C12">
         <v>4.6500000000000004E-6</v>
@@ -1298,7 +1437,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>2.0866875E-3</v>
+        <v>2.0858970000000002E-3</v>
       </c>
       <c r="C13">
         <v>4.6500000000000004E-6</v>

--- a/LO6/DF/data.xlsx
+++ b/LO6/DF/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erwinplanck/Desktop/Physics/Physics Lab III/LO6/DF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC40644-F18D-684D-9BD4-3AA2B6F242D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313B5E90-8837-D944-9D36-29BB7157108B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{698BF56D-CA27-E741-A78B-A382F864983E}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>PART 1</t>
   </si>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <t>CONTRAST</t>
+  </si>
+  <si>
+    <t>ea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etot </t>
   </si>
 </sst>
 </file>
@@ -184,12 +190,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -204,11 +222,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,19 +543,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6C4AA2-9BA7-E241-9204-914C0A3D7DA6}">
-  <dimension ref="B2:R27"/>
+  <dimension ref="B2:R38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -954,7 +974,7 @@
         <v>1397.3715000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>14</v>
       </c>
@@ -980,7 +1000,7 @@
         <v>1746.1215000000004</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -1000,7 +1020,7 @@
         <v>2085.1065000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>17</v>
       </c>
@@ -1014,7 +1034,7 @@
         <v>44.91</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>18</v>
       </c>
@@ -1028,7 +1048,7 @@
         <v>183.6</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>20</v>
       </c>
@@ -1067,8 +1087,24 @@
         <f>0.15 * L22/N7</f>
         <v>2.7180008005795933E-4</v>
       </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3">
+        <f>N21/O4</f>
+        <v>58.45163011999125</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f>C21*O4/F16</f>
+        <v>2.5987920000000004E-4</v>
+      </c>
+      <c r="D22">
+        <f>D21*O4/F16</f>
+        <v>2.5550820000000001E-4</v>
+      </c>
+      <c r="E22">
+        <f>E21*O4/F16</f>
+        <v>2.5796340000000002E-4</v>
+      </c>
       <c r="F22">
         <f>SQRT(1^2 + 1^2)</f>
         <v>1.4142135623730951</v>
@@ -1091,41 +1127,158 @@
         <f>N8*N21/N7</f>
         <v>3.6670122965732179E-7</v>
       </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <f>N22/O4</f>
+        <v>7.8860479496198232E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f>C21/2.5</f>
+        <v>55.887999999999998</v>
+      </c>
+      <c r="D23">
+        <f>D21/2.5</f>
+        <v>54.948</v>
+      </c>
+      <c r="E23">
+        <f>E21/2.5</f>
+        <v>55.475999999999999</v>
+      </c>
       <c r="F23">
         <f>_xlfn.T.INV.2T(0.05,2)*_xlfn.STDEV.S(C21,D21,E21)/SQRT(3)</f>
         <v>2.9262608016378575</v>
       </c>
-      <c r="G23">
-        <f>F22/F16</f>
-        <v>0.56568542494923801</v>
-      </c>
-      <c r="H23">
-        <f>G23*O4</f>
-        <v>2.630437226013957E-6</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="F24">
         <f>(F22^2+F23^2)^0.5</f>
         <v>3.2500772728047926</v>
       </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="1">
+        <f>_xlfn.T.INV.2T(0.05,11)*_xlfn.STDEV.S(L25:L36)/SQRT(12)</f>
+        <v>1.0090575229808513E-6</v>
+      </c>
+      <c r="P24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="1">
+        <f>(N24^2+N22^2)^0.5</f>
+        <v>1.073623247008206E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="G25">
-        <f>_xlfn.VAR.S(C21,E21,D21)*SQRT(3)</f>
-        <v>2.4034514356094809</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+        <f>_xlfn.VAR.S(C23,E23,D23)</f>
+        <v>0.22202133333333224</v>
+      </c>
+      <c r="L25" s="1">
+        <f>(L7/(J7*$L$22*0.15))^-1</f>
+        <v>2.7078093736477031E-4</v>
+      </c>
+      <c r="M25">
+        <f>_xlfn.VAR.S(L25:L36)</f>
+        <v>2.5221961969745685E-12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <f>_xlfn.VAR.S(C22,D22,E22)</f>
+        <v>4.8006562800000658E-12</v>
+      </c>
       <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L26" s="1">
+        <f t="shared" ref="L26:L36" si="7">(L8/(J8*$L$22*0.15))^-1</f>
+        <v>2.7496252982930143E-4</v>
+      </c>
+      <c r="M26" s="4">
+        <f>ABS((N21-H21)/SQRT(M25+G26))</f>
+        <v>5.179630993517911</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="5">
+        <f>ABS((G21-O21)/SQRT(G25+O22^2))</f>
+        <v>6.3094258050848575</v>
+      </c>
+      <c r="L27" s="1">
+        <f t="shared" si="7"/>
+        <v>2.7526571998101021E-4</v>
+      </c>
+      <c r="O27" s="3">
+        <f>H21-N21</f>
+        <v>-1.4016480057959309E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D28" s="4">
+        <f>ABS((H21-N21)/SQRT(N22^2 + G26))</f>
+        <v>6.3094258050848007</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="7"/>
+        <v>2.7075396625643022E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L29" s="1">
+        <f t="shared" si="7"/>
+        <v>2.7096808493305978E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L30" s="1">
+        <f t="shared" si="7"/>
+        <v>2.7117112027569068E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L31" s="1">
+        <f t="shared" si="7"/>
+        <v>2.732488510145226E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="L32" s="1">
+        <f t="shared" si="7"/>
+        <v>2.7253655202451088E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="1">
+        <f t="shared" si="7"/>
+        <v>2.7109299376171545E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="1">
+        <f t="shared" si="7"/>
+        <v>2.7136663371193697E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="1">
+        <f t="shared" si="7"/>
+        <v>2.7145877305788857E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L36" s="1">
+        <f t="shared" si="7"/>
+        <v>2.7279182142494877E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L37" s="1"/>
+    </row>
+    <row r="38" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LO6/DF/data.xlsx
+++ b/LO6/DF/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erwinplanck/Desktop/Physics/Physics Lab III/LO6/DF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313B5E90-8837-D944-9D36-29BB7157108B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A703FF-1B11-1045-A5A2-D94B33A405D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{698BF56D-CA27-E741-A78B-A382F864983E}"/>
   </bookViews>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6C4AA2-9BA7-E241-9204-914C0A3D7DA6}">
   <dimension ref="B2:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1189,7 +1189,10 @@
         <f>_xlfn.VAR.S(C22,D22,E22)</f>
         <v>4.8006562800000658E-12</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3">
+        <f>H22^2</f>
+        <v>3.6543762685128076E-11</v>
+      </c>
       <c r="L26" s="1">
         <f t="shared" ref="L26:L36" si="7">(L8/(J8*$L$22*0.15))^-1</f>
         <v>2.7496252982930143E-4</v>
@@ -1218,7 +1221,7 @@
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="D28" s="4">
-        <f>ABS((H21-N21)/SQRT(N22^2 + G26))</f>
+        <f>ABS((H21-N21)/SQRT(G26+N22^2))</f>
         <v>6.3094258050848007</v>
       </c>
       <c r="L28" s="1">
@@ -1233,6 +1236,10 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D30" s="3">
+        <f>ABS(H21-N21)/SQRT(H22^2+N22^2)</f>
+        <v>2.3143805136445041</v>
+      </c>
       <c r="L30" s="1">
         <f t="shared" si="7"/>
         <v>2.7117112027569068E-4</v>
